--- a/TextTransformer.xlsx
+++ b/TextTransformer.xlsx
@@ -1,86 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WDIR\PP\DYDAKTYK\IO\SE2021\08-Sprint1-planning\Backlogs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5D4B8A-A0D1-410C-B63E-9628F8B8CDCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="0" windowWidth="24420" windowHeight="17280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13360" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
     <sheet name="Sprint #1 Backlog" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Text Transformer</t>
   </si>
   <si>
+    <t>For people working with text data, our Text Transformer application will allow you to transform text data (e.g. change case, eliminate duplicates, etc.). The application will be available via GUI as well as remote API, thanks to which it will be possible to integrate it with existing tools.</t>
+  </si>
+  <si>
+    <t>Product Backlog item</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>Labour intensity</t>
+  </si>
+  <si>
     <t>Business Value (BV)</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Sprint Goal:</t>
-  </si>
-  <si>
-    <t>Product Backlog Item</t>
-  </si>
-  <si>
-    <t>Tasks</t>
-  </si>
-  <si>
-    <t>Labour intensity</t>
-  </si>
-  <si>
-    <t>Element copied from the Product Backlog tab</t>
-  </si>
-  <si>
-    <t>(for Product Backlog item)</t>
-  </si>
-  <si>
-    <t>Task #1 to Product Backlog item</t>
-  </si>
-  <si>
-    <t>(for task)</t>
-  </si>
-  <si>
-    <t>Task #2 to Product Backlog item</t>
-  </si>
-  <si>
-    <t>Task #3 to Product Backlog item</t>
-  </si>
-  <si>
-    <t>Task #4 to Product Backlog item</t>
-  </si>
-  <si>
-    <t>Product Backlog item</t>
-  </si>
-  <si>
-    <t>Importance</t>
-  </si>
-  <si>
     <t>Acceptance Criteria</t>
-  </si>
-  <si>
-    <t>For people working with text data, our Text Transformer application will allow you to transform text data (e.g. change case, eliminate duplicates, etc.). The application will be available via GUI as well as remote API, thanks to which it will be possible to integrate it with existing tools.</t>
   </si>
   <si>
     <t>As an application developer, I can invoke a transformation remotely via REST to be able to integrate the tool with my other apps</t>
@@ -135,11 +91,11 @@
 • Preserves case: E.g. -&gt; For example</t>
   </si>
   <si>
+    <t>As a user I can convert text to Latex supported format (special characters) -&gt; (John Smith &amp; Sons -&gt; John Smith \&amp; Sons)</t>
+  </si>
+  <si>
     <t>• &amp; -&gt; \&amp;
 • $ -&gt; \$</t>
-  </si>
-  <si>
-    <t>As a user I can convert text to Latex supported format (special characters) -&gt; (John Smith &amp; Sons -&gt; John Smith \&amp; Sons)</t>
   </si>
   <si>
     <t>As a user, I can eliminate repetitive words in the immediate vicinity (Send me me a message -&gt; Send me a message)</t>
@@ -156,23 +112,78 @@
   <si>
     <t>To be negotiated later</t>
   </si>
+  <si>
+    <t>Sprint Goal:</t>
+  </si>
+  <si>
+    <t>Product Backlog Item</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Task #1 Create TransformationRequest and TransformationResponse DTOs (Data Transfer Objects).</t>
+  </si>
+  <si>
+    <t>Task #2 Implement a TransformationController with a POST endpoint (/api/transform).</t>
+  </si>
+  <si>
+    <t>Task #3 Create a TransformationService to orchestrate the transformations and define a Transformer interface.</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Task #1 Implement UpperCaseTransformer class.</t>
+  </si>
+  <si>
+    <t>Task #2 Implement LowerCaseTransformer class.</t>
+  </si>
+  <si>
+    <t>Task #3 Implement CapitalizeTransformer class.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,49 +191,340 @@
       <sz val="18"/>
       <color rgb="FF4F81BD"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -230,38 +532,248 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -269,78 +781,97 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="47">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
+    <cellStyle name="Comma" xfId="43" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
+    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+  </cellStyles>
+  <dxfs count="8">
+    <dxf>
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="21">
-    <cellStyle name="Hiperłącze" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperłącze" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperłącze" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperłącze" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperłącze" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperłącze" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperłącze" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperłącze" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperłącze" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperłącze" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Odwiedzone hiperłącze" xfId="20" builtinId="9" hidden="1"/>
-  </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="top" wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment vertical="top" wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment vertical="top" wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -348,34 +879,31 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Product Backlog item" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Importance" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Labour intensity" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Business Value (BV)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Acceptance Criteria" dataDxfId="4"/>
+    <tableColumn id="1" name="Product Backlog item" dataDxfId="0"/>
+    <tableColumn id="2" name="Importance" dataDxfId="1"/>
+    <tableColumn id="3" name="Labour intensity" dataDxfId="2"/>
+    <tableColumn id="4" name="Business Value (BV)" dataDxfId="3"/>
+    <tableColumn id="5" name="Acceptance Criteria" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A4:C44" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A4:C44" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A4:C44" totalsRowShown="0">
+  <autoFilter ref="A4:C44"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Product Backlog Item" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Tasks" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Labour intensity" dataDxfId="0"/>
+    <tableColumn id="1" name="Product Backlog Item" dataDxfId="5"/>
+    <tableColumn id="2" name="Tasks" dataDxfId="6"/>
+    <tableColumn id="3" name="Labour intensity" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -697,303 +1225,289 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.8" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="95.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="23" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
+    <row r="2" ht="51" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="52" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="52" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="58.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="17" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="60" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="104" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="60" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="45" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="6" ht="60" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="74" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="32.25" customHeight="1" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="60" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="10" ht="15" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="4">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="45.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="48.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33" style="4" customWidth="1"/>
+    <col min="1" max="1" width="45.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="2" ht="16" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" ht="45" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="30" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="30" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="15"/>
+    <row r="11" ht="30" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>2</v>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/TextTransformer.xlsx
+++ b/TextTransformer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Text Transformer</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t>Task #3 Implement CapitalizeTransformer class.</t>
+  </si>
+  <si>
+    <t>Task #1 Implement InverseTransformer class with logic to preserve case positions.</t>
+  </si>
+  <si>
+    <t>Task #2 Write unit tests for edge cases (e.g., single character, empty string, mixed case).</t>
+  </si>
+  <si>
+    <t>Task #1 Implement LatexTransformer class to handle &amp; and $.</t>
+  </si>
+  <si>
+    <t>Task #1 Implement RemoveRepetitiveWordsTransformer class using regular expressions or a loop.</t>
+  </si>
+  <si>
+    <t>Task #2 Test with multiple repetitions</t>
   </si>
 </sst>
 </file>
@@ -1263,8 +1278,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.8" outlineLevelCol="4"/>
@@ -1426,10 +1441,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.8" outlineLevelCol="2"/>
@@ -1502,6 +1517,55 @@
         <v>35</v>
       </c>
     </row>
+    <row r="17" ht="45" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" ht="30" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" ht="45" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" ht="45" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" ht="30" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
